--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il34-Csf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il34-Csf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Il34</t>
   </si>
   <si>
     <t>Csf1r</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.654587</v>
+        <v>0.508158</v>
       </c>
       <c r="H2">
-        <v>4.963761</v>
+        <v>1.524474</v>
       </c>
       <c r="I2">
-        <v>0.05277312046682092</v>
+        <v>0.04862376917091377</v>
       </c>
       <c r="J2">
-        <v>0.07150718413853953</v>
+        <v>0.05726390893452041</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.654529</v>
+        <v>2.266198333333334</v>
       </c>
       <c r="N2">
-        <v>1.963587</v>
+        <v>6.798595000000001</v>
       </c>
       <c r="O2">
-        <v>0.001636504842097015</v>
+        <v>0.004051889747168086</v>
       </c>
       <c r="P2">
-        <v>0.001641975240588762</v>
+        <v>0.004065587792570741</v>
       </c>
       <c r="Q2">
-        <v>1.082975174523</v>
+        <v>1.15158681267</v>
       </c>
       <c r="R2">
-        <v>9.746776570707</v>
+        <v>10.36428131403</v>
       </c>
       <c r="S2">
-        <v>8.636346717652151E-05</v>
+        <v>0.0001970181517722932</v>
       </c>
       <c r="T2">
-        <v>0.0001174130258797034</v>
+        <v>0.0002328114491190688</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.654587</v>
+        <v>0.508158</v>
       </c>
       <c r="H3">
-        <v>4.963761</v>
+        <v>1.524474</v>
       </c>
       <c r="I3">
-        <v>0.05277312046682092</v>
+        <v>0.04862376917091377</v>
       </c>
       <c r="J3">
-        <v>0.07150718413853953</v>
+        <v>0.05726390893452041</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.877636000000001</v>
       </c>
       <c r="O3">
-        <v>0.006565428197618827</v>
+        <v>0.00469498661713519</v>
       </c>
       <c r="P3">
-        <v>0.006587374670116828</v>
+        <v>0.004710858751832666</v>
       </c>
       <c r="Q3">
-        <v>4.344744705444</v>
+        <v>1.334361251496</v>
       </c>
       <c r="R3">
-        <v>39.102702348996</v>
+        <v>12.009251263464</v>
       </c>
       <c r="S3">
-        <v>0.0003464781331892013</v>
+        <v>0.0002282879455321108</v>
       </c>
       <c r="T3">
-        <v>0.0004710446135255951</v>
+        <v>0.0002697621865683343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.654587</v>
+        <v>0.508158</v>
       </c>
       <c r="H4">
-        <v>4.963761</v>
+        <v>1.524474</v>
       </c>
       <c r="I4">
-        <v>0.05277312046682092</v>
+        <v>0.04862376917091377</v>
       </c>
       <c r="J4">
-        <v>0.07150718413853953</v>
+        <v>0.05726390893452041</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>196.492958</v>
+        <v>258.491684</v>
       </c>
       <c r="N4">
-        <v>589.4788739999999</v>
+        <v>775.475052</v>
       </c>
       <c r="O4">
-        <v>0.491287135031397</v>
+        <v>0.462174818824101</v>
       </c>
       <c r="P4">
-        <v>0.4929293766755139</v>
+        <v>0.4637372729004096</v>
       </c>
       <c r="Q4">
-        <v>325.1146938983459</v>
+        <v>131.354617158072</v>
       </c>
       <c r="R4">
-        <v>2926.032245085114</v>
+        <v>1182.191554422648</v>
       </c>
       <c r="S4">
-        <v>0.02592675516081123</v>
+        <v>0.02247268170711198</v>
       </c>
       <c r="T4">
-        <v>0.03524799170523148</v>
+        <v>0.0265554089649119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.654587</v>
+        <v>0.508158</v>
       </c>
       <c r="H5">
-        <v>4.963761</v>
+        <v>1.524474</v>
       </c>
       <c r="I5">
-        <v>0.05277312046682092</v>
+        <v>0.04862376917091377</v>
       </c>
       <c r="J5">
-        <v>0.07150718413853953</v>
+        <v>0.05726390893452041</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.99747</v>
+        <v>5.653232</v>
       </c>
       <c r="N5">
-        <v>7.99494</v>
+        <v>11.306464</v>
       </c>
       <c r="O5">
-        <v>0.009994788636007805</v>
+        <v>0.01010779702828123</v>
       </c>
       <c r="P5">
-        <v>0.006685465696194116</v>
+        <v>0.006761312008663634</v>
       </c>
       <c r="Q5">
-        <v>6.61416189489</v>
+        <v>2.872735066656</v>
       </c>
       <c r="R5">
-        <v>39.68497136934</v>
+        <v>17.236410399936</v>
       </c>
       <c r="S5">
-        <v>0.0005274561847284526</v>
+        <v>0.0004914791895295945</v>
       </c>
       <c r="T5">
-        <v>0.000478058826589642</v>
+        <v>0.0003871791551419937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.654587</v>
+        <v>0.508158</v>
       </c>
       <c r="H6">
-        <v>4.963761</v>
+        <v>1.524474</v>
       </c>
       <c r="I6">
-        <v>0.05277312046682092</v>
+        <v>0.04862376917091377</v>
       </c>
       <c r="J6">
-        <v>0.07150718413853953</v>
+        <v>0.05726390893452041</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>196.1845956666667</v>
+        <v>290.257182</v>
       </c>
       <c r="N6">
-        <v>588.5537870000001</v>
+        <v>870.7715460000001</v>
       </c>
       <c r="O6">
-        <v>0.4905161432928793</v>
+        <v>0.5189705077833145</v>
       </c>
       <c r="P6">
-        <v>0.4921558077175863</v>
+        <v>0.5207249685465234</v>
       </c>
       <c r="Q6">
-        <v>324.6044815903231</v>
+        <v>147.496509090756</v>
       </c>
       <c r="R6">
-        <v>2921.440334312907</v>
+        <v>1327.468581816804</v>
       </c>
       <c r="S6">
-        <v>0.02588606752091551</v>
+        <v>0.02523430217696779</v>
       </c>
       <c r="T6">
-        <v>0.0351926759673131</v>
+        <v>0.02981874717877912</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>15.16799</v>
       </c>
       <c r="I7">
-        <v>0.1612612217851615</v>
+        <v>0.4837897166804604</v>
       </c>
       <c r="J7">
-        <v>0.2185077512679451</v>
+        <v>0.5697561244597915</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.654529</v>
+        <v>2.266198333333334</v>
       </c>
       <c r="N7">
-        <v>1.963587</v>
+        <v>6.798595000000001</v>
       </c>
       <c r="O7">
-        <v>0.001636504842097015</v>
+        <v>0.004051889747168086</v>
       </c>
       <c r="P7">
-        <v>0.001641975240588762</v>
+        <v>0.004065587792570741</v>
       </c>
       <c r="Q7">
-        <v>3.309296442236667</v>
+        <v>11.45789121933889</v>
       </c>
       <c r="R7">
-        <v>29.78366798013</v>
+        <v>103.12102097405</v>
       </c>
       <c r="S7">
-        <v>0.0002639047702938974</v>
+        <v>0.001960262592802911</v>
       </c>
       <c r="T7">
-        <v>0.0003587843174586935</v>
+        <v>0.002316393544346144</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>15.16799</v>
       </c>
       <c r="I8">
-        <v>0.1612612217851615</v>
+        <v>0.4837897166804604</v>
       </c>
       <c r="J8">
-        <v>0.2185077512679451</v>
+        <v>0.5697561244597915</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>7.877636000000001</v>
       </c>
       <c r="O8">
-        <v>0.006565428197618827</v>
+        <v>0.00469498661713519</v>
       </c>
       <c r="P8">
-        <v>0.006587374670116828</v>
+        <v>0.004710858751832666</v>
       </c>
       <c r="Q8">
         <v>13.27643378573778</v>
@@ -948,10 +948,10 @@
         <v>119.48790407164</v>
       </c>
       <c r="S8">
-        <v>0.001058748972690763</v>
+        <v>0.002271386245322387</v>
       </c>
       <c r="T8">
-        <v>0.001439392425926649</v>
+        <v>0.00268404062532167</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>15.16799</v>
       </c>
       <c r="I9">
-        <v>0.1612612217851615</v>
+        <v>0.4837897166804604</v>
       </c>
       <c r="J9">
-        <v>0.2185077512679451</v>
+        <v>0.5697561244597915</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>196.492958</v>
+        <v>258.491684</v>
       </c>
       <c r="N9">
-        <v>589.4788739999999</v>
+        <v>775.475052</v>
       </c>
       <c r="O9">
-        <v>0.491287135031397</v>
+        <v>0.462174818824101</v>
       </c>
       <c r="P9">
-        <v>0.4929293766755139</v>
+        <v>0.4637372729004096</v>
       </c>
       <c r="Q9">
-        <v>993.4677406714731</v>
+        <v>1306.933092665053</v>
       </c>
       <c r="R9">
-        <v>8941.209666043258</v>
+        <v>11762.39783398548</v>
       </c>
       <c r="S9">
-        <v>0.07922556364249471</v>
+        <v>0.223595424655755</v>
       </c>
       <c r="T9">
-        <v>0.1077088896312764</v>
+        <v>0.2642171513752901</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>15.16799</v>
       </c>
       <c r="I10">
-        <v>0.1612612217851615</v>
+        <v>0.4837897166804604</v>
       </c>
       <c r="J10">
-        <v>0.2185077512679451</v>
+        <v>0.5697561244597915</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.99747</v>
+        <v>5.653232</v>
       </c>
       <c r="N10">
-        <v>7.99494</v>
+        <v>11.306464</v>
       </c>
       <c r="O10">
-        <v>0.009994788636007805</v>
+        <v>0.01010779702828123</v>
       </c>
       <c r="P10">
-        <v>0.006685465696194116</v>
+        <v>0.006761312008663634</v>
       </c>
       <c r="Q10">
-        <v>20.2111949951</v>
+        <v>28.58272214789333</v>
       </c>
       <c r="R10">
-        <v>121.2671699706</v>
+        <v>171.49633288736</v>
       </c>
       <c r="S10">
-        <v>0.001611771826927066</v>
+        <v>0.004890048260575775</v>
       </c>
       <c r="T10">
-        <v>0.001460826075454363</v>
+        <v>0.00385229892631964</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>15.16799</v>
       </c>
       <c r="I11">
-        <v>0.1612612217851615</v>
+        <v>0.4837897166804604</v>
       </c>
       <c r="J11">
-        <v>0.2185077512679451</v>
+        <v>0.5697561244597915</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>196.1845956666667</v>
+        <v>290.257182</v>
       </c>
       <c r="N11">
-        <v>588.5537870000001</v>
+        <v>870.7715460000001</v>
       </c>
       <c r="O11">
-        <v>0.4905161432928793</v>
+        <v>0.5189705077833145</v>
       </c>
       <c r="P11">
-        <v>0.4921558077175863</v>
+        <v>0.5207249685465234</v>
       </c>
       <c r="Q11">
-        <v>991.9086617420145</v>
+        <v>1467.53934466806</v>
       </c>
       <c r="R11">
-        <v>8927.177955678131</v>
+        <v>13207.85410201254</v>
       </c>
       <c r="S11">
-        <v>0.07910123257275507</v>
+        <v>0.2510725949260044</v>
       </c>
       <c r="T11">
-        <v>0.1075398588178289</v>
+        <v>0.296686239988514</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>24.6422525</v>
+        <v>0.06272999999999999</v>
       </c>
       <c r="H12">
-        <v>49.284505</v>
+        <v>0.18819</v>
       </c>
       <c r="I12">
-        <v>0.7859656577480175</v>
+        <v>0.006002402874876358</v>
       </c>
       <c r="J12">
-        <v>0.7099850645935154</v>
+        <v>0.007068992335971224</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.654529</v>
+        <v>2.266198333333334</v>
       </c>
       <c r="N12">
-        <v>1.963587</v>
+        <v>6.798595000000001</v>
       </c>
       <c r="O12">
-        <v>0.001636504842097015</v>
+        <v>0.004051889747168086</v>
       </c>
       <c r="P12">
-        <v>0.001641975240588762</v>
+        <v>0.004065587792570741</v>
       </c>
       <c r="Q12">
-        <v>16.1290688865725</v>
+        <v>0.14215862145</v>
       </c>
       <c r="R12">
-        <v>96.774413319435</v>
+        <v>1.27942759305</v>
       </c>
       <c r="S12">
-        <v>0.001286236604626596</v>
+        <v>2.432107466708376E-05</v>
       </c>
       <c r="T12">
-        <v>0.001165777897250365</v>
+        <v>2.873960894690073E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>24.6422525</v>
+        <v>0.06272999999999999</v>
       </c>
       <c r="H13">
-        <v>49.284505</v>
+        <v>0.18819</v>
       </c>
       <c r="I13">
-        <v>0.7859656577480175</v>
+        <v>0.006002402874876358</v>
       </c>
       <c r="J13">
-        <v>0.7099850645935154</v>
+        <v>0.007068992335971224</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.877636000000001</v>
       </c>
       <c r="O13">
-        <v>0.006565428197618827</v>
+        <v>0.00469498661713519</v>
       </c>
       <c r="P13">
-        <v>0.006587374670116828</v>
+        <v>0.004710858751832666</v>
       </c>
       <c r="Q13">
-        <v>64.70756513836335</v>
+        <v>0.16472136876</v>
       </c>
       <c r="R13">
-        <v>388.24539083018</v>
+        <v>1.48249231884</v>
       </c>
       <c r="S13">
-        <v>0.005160201091738862</v>
+        <v>2.818120116819829E-05</v>
       </c>
       <c r="T13">
-        <v>0.004676937630664584</v>
+        <v>3.330102441254808E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>24.6422525</v>
+        <v>0.06272999999999999</v>
       </c>
       <c r="H14">
-        <v>49.284505</v>
+        <v>0.18819</v>
       </c>
       <c r="I14">
-        <v>0.7859656577480175</v>
+        <v>0.006002402874876358</v>
       </c>
       <c r="J14">
-        <v>0.7099850645935154</v>
+        <v>0.007068992335971224</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>196.492958</v>
+        <v>258.491684</v>
       </c>
       <c r="N14">
-        <v>589.4788739999999</v>
+        <v>775.475052</v>
       </c>
       <c r="O14">
-        <v>0.491287135031397</v>
+        <v>0.462174818824101</v>
       </c>
       <c r="P14">
-        <v>0.4929293766755139</v>
+        <v>0.4637372729004096</v>
       </c>
       <c r="Q14">
-        <v>4842.029085507895</v>
+        <v>16.21518333732</v>
       </c>
       <c r="R14">
-        <v>29052.17451304737</v>
+        <v>145.93665003588</v>
       </c>
       <c r="S14">
-        <v>0.3861348162280911</v>
+        <v>0.002774159461205244</v>
       </c>
       <c r="T14">
-        <v>0.349972495339006</v>
+        <v>0.003278155228037191</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>24.6422525</v>
+        <v>0.06272999999999999</v>
       </c>
       <c r="H15">
-        <v>49.284505</v>
+        <v>0.18819</v>
       </c>
       <c r="I15">
-        <v>0.7859656577480175</v>
+        <v>0.006002402874876358</v>
       </c>
       <c r="J15">
-        <v>0.7099850645935154</v>
+        <v>0.007068992335971224</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.99747</v>
+        <v>5.653232</v>
       </c>
       <c r="N15">
-        <v>7.99494</v>
+        <v>11.306464</v>
       </c>
       <c r="O15">
-        <v>0.009994788636007805</v>
+        <v>0.01010779702828123</v>
       </c>
       <c r="P15">
-        <v>0.006685465696194116</v>
+        <v>0.006761312008663634</v>
       </c>
       <c r="Q15">
-        <v>98.506665101175</v>
+        <v>0.35462724336</v>
       </c>
       <c r="R15">
-        <v>394.0266604047</v>
+        <v>2.12776346016</v>
       </c>
       <c r="S15">
-        <v>0.007855560624352284</v>
+        <v>6.067106994122194E-05</v>
       </c>
       <c r="T15">
-        <v>0.00474658079415011</v>
+        <v>4.779566277035344E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06272999999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.18819</v>
+      </c>
+      <c r="I16">
+        <v>0.006002402874876358</v>
+      </c>
+      <c r="J16">
+        <v>0.007068992335971224</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>290.257182</v>
+      </c>
+      <c r="N16">
+        <v>870.7715460000001</v>
+      </c>
+      <c r="O16">
+        <v>0.5189705077833145</v>
+      </c>
+      <c r="P16">
+        <v>0.5207249685465234</v>
+      </c>
+      <c r="Q16">
+        <v>18.20783302686</v>
+      </c>
+      <c r="R16">
+        <v>163.87049724174</v>
+      </c>
+      <c r="S16">
+        <v>0.003115070067894611</v>
+      </c>
+      <c r="T16">
+        <v>0.003681000811804231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.730544999999999</v>
+      </c>
+      <c r="H17">
+        <v>9.461089999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.4526484442488758</v>
+      </c>
+      <c r="J17">
+        <v>0.355387495084404</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.266198333333334</v>
+      </c>
+      <c r="N17">
+        <v>6.798595000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.004051889747168086</v>
+      </c>
+      <c r="P17">
+        <v>0.004065587792570741</v>
+      </c>
+      <c r="Q17">
+        <v>10.72035319475833</v>
+      </c>
+      <c r="R17">
+        <v>64.32211916855</v>
+      </c>
+      <c r="S17">
+        <v>0.001834081590323605</v>
+      </c>
+      <c r="T17">
+        <v>0.001444859061647447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.730544999999999</v>
+      </c>
+      <c r="H18">
+        <v>9.461089999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.4526484442488758</v>
+      </c>
+      <c r="J18">
+        <v>0.355387495084404</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.625878666666667</v>
+      </c>
+      <c r="N18">
+        <v>7.877636000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.00469498661713519</v>
+      </c>
+      <c r="P18">
+        <v>0.004710858751832666</v>
+      </c>
+      <c r="Q18">
+        <v>12.42183719720667</v>
+      </c>
+      <c r="R18">
+        <v>74.53102318323999</v>
+      </c>
+      <c r="S18">
+        <v>0.002125178388015536</v>
+      </c>
+      <c r="T18">
+        <v>0.001674180291510253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.730544999999999</v>
+      </c>
+      <c r="H19">
+        <v>9.461089999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.4526484442488758</v>
+      </c>
+      <c r="J19">
+        <v>0.355387495084404</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>258.491684</v>
+      </c>
+      <c r="N19">
+        <v>775.475052</v>
+      </c>
+      <c r="O19">
+        <v>0.462174818824101</v>
+      </c>
+      <c r="P19">
+        <v>0.4637372729004096</v>
+      </c>
+      <c r="Q19">
+        <v>1222.80654328778</v>
+      </c>
+      <c r="R19">
+        <v>7336.839259726679</v>
+      </c>
+      <c r="S19">
+        <v>0.2092027127117354</v>
+      </c>
+      <c r="T19">
+        <v>0.1648064277933492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.730544999999999</v>
+      </c>
+      <c r="H20">
+        <v>9.461089999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.4526484442488758</v>
+      </c>
+      <c r="J20">
+        <v>0.355387495084404</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.653232</v>
+      </c>
+      <c r="N20">
+        <v>11.306464</v>
+      </c>
+      <c r="O20">
+        <v>0.01010779702828123</v>
+      </c>
+      <c r="P20">
+        <v>0.006761312008663634</v>
+      </c>
+      <c r="Q20">
+        <v>26.74286837144</v>
+      </c>
+      <c r="R20">
+        <v>106.97147348576</v>
+      </c>
+      <c r="S20">
+        <v>0.004575278599634907</v>
+      </c>
+      <c r="T20">
+        <v>0.002402885738243069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>24.6422525</v>
-      </c>
-      <c r="H16">
-        <v>49.284505</v>
-      </c>
-      <c r="I16">
-        <v>0.7859656577480175</v>
-      </c>
-      <c r="J16">
-        <v>0.7099850645935154</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>196.1845956666667</v>
-      </c>
-      <c r="N16">
-        <v>588.5537870000001</v>
-      </c>
-      <c r="O16">
-        <v>0.4905161432928793</v>
-      </c>
-      <c r="P16">
-        <v>0.4921558077175863</v>
-      </c>
-      <c r="Q16">
-        <v>4834.430343028407</v>
-      </c>
-      <c r="R16">
-        <v>29006.58205817044</v>
-      </c>
-      <c r="S16">
-        <v>0.3855288431992087</v>
-      </c>
-      <c r="T16">
-        <v>0.3494232729324442</v>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.730544999999999</v>
+      </c>
+      <c r="H21">
+        <v>9.461089999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.4526484442488758</v>
+      </c>
+      <c r="J21">
+        <v>0.355387495084404</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>290.257182</v>
+      </c>
+      <c r="N21">
+        <v>870.7715460000001</v>
+      </c>
+      <c r="O21">
+        <v>0.5189705077833145</v>
+      </c>
+      <c r="P21">
+        <v>0.5207249685465234</v>
+      </c>
+      <c r="Q21">
+        <v>1373.07466102419</v>
+      </c>
+      <c r="R21">
+        <v>8238.447966145139</v>
+      </c>
+      <c r="S21">
+        <v>0.2349111929591664</v>
+      </c>
+      <c r="T21">
+        <v>0.185059142199654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.093385</v>
+      </c>
+      <c r="H22">
+        <v>0.280155</v>
+      </c>
+      <c r="I22">
+        <v>0.008935667024873724</v>
+      </c>
+      <c r="J22">
+        <v>0.01052347918531281</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.266198333333334</v>
+      </c>
+      <c r="N22">
+        <v>6.798595000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.004051889747168086</v>
+      </c>
+      <c r="P22">
+        <v>0.004065587792570741</v>
+      </c>
+      <c r="Q22">
+        <v>0.2116289313583334</v>
+      </c>
+      <c r="R22">
+        <v>1.904660382225</v>
+      </c>
+      <c r="S22">
+        <v>3.62063376021938E-05</v>
+      </c>
+      <c r="T22">
+        <v>4.278412851118005E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.093385</v>
+      </c>
+      <c r="H23">
+        <v>0.280155</v>
+      </c>
+      <c r="I23">
+        <v>0.008935667024873724</v>
+      </c>
+      <c r="J23">
+        <v>0.01052347918531281</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.625878666666667</v>
+      </c>
+      <c r="N23">
+        <v>7.877636000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.00469498661713519</v>
+      </c>
+      <c r="P23">
+        <v>0.004710858751832666</v>
+      </c>
+      <c r="Q23">
+        <v>0.2452176792866667</v>
+      </c>
+      <c r="R23">
+        <v>2.20695911358</v>
+      </c>
+      <c r="S23">
+        <v>4.195283709695835E-05</v>
+      </c>
+      <c r="T23">
+        <v>4.957462401985976E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.093385</v>
+      </c>
+      <c r="H24">
+        <v>0.280155</v>
+      </c>
+      <c r="I24">
+        <v>0.008935667024873724</v>
+      </c>
+      <c r="J24">
+        <v>0.01052347918531281</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>258.491684</v>
+      </c>
+      <c r="N24">
+        <v>775.475052</v>
+      </c>
+      <c r="O24">
+        <v>0.462174818824101</v>
+      </c>
+      <c r="P24">
+        <v>0.4637372729004096</v>
+      </c>
+      <c r="Q24">
+        <v>24.13924591034</v>
+      </c>
+      <c r="R24">
+        <v>217.25321319306</v>
+      </c>
+      <c r="S24">
+        <v>0.004129840288293507</v>
+      </c>
+      <c r="T24">
+        <v>0.004880129538821188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.093385</v>
+      </c>
+      <c r="H25">
+        <v>0.280155</v>
+      </c>
+      <c r="I25">
+        <v>0.008935667024873724</v>
+      </c>
+      <c r="J25">
+        <v>0.01052347918531281</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.653232</v>
+      </c>
+      <c r="N25">
+        <v>11.306464</v>
+      </c>
+      <c r="O25">
+        <v>0.01010779702828123</v>
+      </c>
+      <c r="P25">
+        <v>0.006761312008663634</v>
+      </c>
+      <c r="Q25">
+        <v>0.52792707032</v>
+      </c>
+      <c r="R25">
+        <v>3.16756242192</v>
+      </c>
+      <c r="S25">
+        <v>9.031990859972917E-05</v>
+      </c>
+      <c r="T25">
+        <v>7.115252618857731E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.093385</v>
+      </c>
+      <c r="H26">
+        <v>0.280155</v>
+      </c>
+      <c r="I26">
+        <v>0.008935667024873724</v>
+      </c>
+      <c r="J26">
+        <v>0.01052347918531281</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>290.257182</v>
+      </c>
+      <c r="N26">
+        <v>870.7715460000001</v>
+      </c>
+      <c r="O26">
+        <v>0.5189705077833145</v>
+      </c>
+      <c r="P26">
+        <v>0.5207249685465234</v>
+      </c>
+      <c r="Q26">
+        <v>27.10566694107</v>
+      </c>
+      <c r="R26">
+        <v>243.95100246963</v>
+      </c>
+      <c r="S26">
+        <v>0.004637347653281336</v>
+      </c>
+      <c r="T26">
+        <v>0.005479838367772008</v>
       </c>
     </row>
   </sheetData>
